--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -390,7 +390,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -398,34 +398,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2971,273 +2972,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01EDA643-78FC-4481-8341-5C2871DB4D09}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA3A2C4-FD9E-4B56-81CC-46ADF0E1CFDA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7602B7-5425-42BD-B48C-9902F5CA3DEE}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -327,6 +342,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -415,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -427,6 +445,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,225 +467,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -688,2285 +743,2630 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,64 +32,67 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -744,2629 +747,2629 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,22 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
+  </si>
+  <si>
+    <t>Autorizzazione del tribunale</t>
   </si>
   <si>
     <t>Formula</t>
@@ -347,7 +350,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -448,7 +451,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,13 +548,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -568,13 +571,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -591,13 +594,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -614,7 +617,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -637,7 +640,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -660,7 +663,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -706,7 +709,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -728,2648 +731,2671 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>31</v>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1399,19 +1405,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1428,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1451,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1474,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1520,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1543,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1589,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1914,19 @@
         <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>32</v>
@@ -1931,7 +1937,7 @@
         <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
@@ -1940,7 +1946,7 @@
         <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1951,22 +1957,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>32</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2066,22 +2072,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2158,22 +2164,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2181,22 +2187,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>32</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2250,22 +2256,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>32</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2296,22 +2302,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>32</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>20</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2365,22 +2371,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>32</v>
@@ -2388,22 +2394,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>32</v>
@@ -2414,16 +2420,16 @@
         <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2437,7 +2443,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
@@ -2446,7 +2452,7 @@
         <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2460,16 +2466,16 @@
         <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2480,10 +2486,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2492,7 +2498,7 @@
         <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2549,16 +2555,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>98</v>
@@ -2572,10 +2578,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
@@ -2584,7 +2590,7 @@
         <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2733,10 +2739,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2745,7 +2751,7 @@
         <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2756,10 +2762,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2768,7 +2774,7 @@
         <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2779,10 +2785,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2791,7 +2797,7 @@
         <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2802,599 +2808,691 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -356,7 +356,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -457,7 +460,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3386,7 +3389,7 @@
         <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
@@ -3406,19 +3409,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3432,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>22</v>
@@ -3452,10 +3455,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -3464,7 +3467,7 @@
         <v>30</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3475,10 +3478,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
@@ -3487,7 +3490,7 @@
         <v>95</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3389,7 +3386,7 @@
         <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
@@ -3409,19 +3406,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3429,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>22</v>
@@ -3455,10 +3452,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -3467,7 +3464,7 @@
         <v>30</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3478,10 +3475,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
@@ -3490,7 +3487,7 @@
         <v>95</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3386,7 +3389,7 @@
         <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
@@ -3406,19 +3409,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3432,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>22</v>
@@ -3452,10 +3455,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -3464,7 +3467,7 @@
         <v>30</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3475,10 +3478,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
@@ -3487,7 +3490,7 @@
         <v>95</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -448,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -458,7 +488,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1960,22 +1990,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>32</v>
@@ -1983,19 +2013,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2036,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2059,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2082,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,22 +2105,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2098,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2121,22 +2151,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2144,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,22 +2197,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2190,22 +2220,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>32</v>
@@ -2213,19 +2243,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2236,22 +2266,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2259,19 +2289,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,22 +2312,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>32</v>
@@ -2305,22 +2335,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>32</v>
@@ -2328,22 +2358,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>32</v>
@@ -2351,19 +2381,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2374,22 +2404,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>32</v>
@@ -2397,22 +2427,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>32</v>
@@ -2420,19 +2450,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2443,22 +2473,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2466,19 +2496,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2489,22 +2519,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2512,22 +2542,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2535,19 +2565,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2588,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2611,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2634,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2627,22 +2657,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2650,19 +2680,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2673,22 +2703,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2696,22 +2726,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2719,19 +2749,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2772,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2795,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2818,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2841,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2864,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2857,16 +2887,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>110</v>
@@ -2880,622 +2910,944 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E132" s="2" t="s">
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -3077,7 +3077,7 @@
         <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>105</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -152,6 +152,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -206,13 +212,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1461,19 +1467,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1484,19 +1490,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1996,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2105,22 +2111,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2128,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2151,22 +2157,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,22 +2272,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2312,22 +2318,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>32</v>
@@ -2335,19 +2341,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2381,22 +2387,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>32</v>
@@ -2404,22 +2410,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>32</v>
@@ -2427,19 +2433,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2473,22 +2479,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2519,22 +2525,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2542,19 +2548,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>20</v>
@@ -2565,19 +2571,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2588,22 +2594,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2611,22 +2617,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>32</v>
@@ -2634,19 +2640,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2657,22 +2663,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2703,22 +2709,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -2752,7 +2758,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2761,7 +2767,7 @@
         <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2781,19 @@
         <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2798,19 +2804,19 @@
         <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>32</v>
@@ -2818,10 +2824,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2830,7 +2836,7 @@
         <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2887,16 +2893,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>110</v>
@@ -2910,19 +2916,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2939,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2962,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2985,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3077,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3123,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3146,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3186,10 +3192,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3198,7 +3204,7 @@
         <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3209,10 +3215,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3221,7 +3227,7 @@
         <v>105</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3232,622 +3238,737 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B146" s="2" t="s">
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1490,19 +1496,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1519,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2157,22 +2163,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2203,22 +2209,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2324,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2341,22 +2347,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>32</v>
@@ -2364,19 +2370,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
@@ -2410,22 +2416,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>32</v>
@@ -2433,22 +2439,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>32</v>
@@ -2456,22 +2462,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2508,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2525,22 +2531,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2548,22 +2554,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2571,22 +2577,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>32</v>
@@ -2594,22 +2600,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2617,19 +2623,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>20</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2663,22 +2669,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2686,22 +2692,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2709,19 +2715,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2732,22 +2738,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2755,19 +2761,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2778,22 +2784,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -2827,7 +2833,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2836,7 +2842,7 @@
         <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2856,19 @@
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>32</v>
@@ -2873,19 +2879,19 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>32</v>
@@ -2893,10 +2899,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2905,7 +2911,7 @@
         <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2922,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2945,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2968,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2985,19 +2991,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3008,10 +3014,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>19</v>
@@ -3020,7 +3026,7 @@
         <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3037,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3060,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3175,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3221,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3284,10 +3290,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3296,7 +3302,7 @@
         <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3307,10 +3313,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3319,7 +3325,7 @@
         <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3330,645 +3336,737 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B151" s="2" t="s">
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1519,19 +1525,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1542,19 +1548,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1571,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1732,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1870,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1962,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1979,19 +1985,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2054,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2077,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2100,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2123,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2169,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2192,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2209,22 +2215,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2255,22 +2261,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2393,22 +2399,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>32</v>
@@ -2416,19 +2422,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>20</v>
@@ -2462,22 +2468,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2485,22 +2491,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2508,22 +2514,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>32</v>
@@ -2531,22 +2537,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2583,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>20</v>
@@ -2600,22 +2606,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2623,22 +2629,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>32</v>
@@ -2646,22 +2652,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2669,22 +2675,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2738,22 +2744,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2761,22 +2767,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>32</v>
@@ -2784,19 +2790,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2807,22 +2813,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>32</v>
@@ -2830,19 +2836,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2853,22 +2859,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>32</v>
@@ -2876,19 +2882,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>20</v>
@@ -2902,7 +2908,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2911,7 +2917,7 @@
         <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -2948,19 +2954,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>32</v>
@@ -2968,10 +2974,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -2980,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2991,19 +2997,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3014,19 +3020,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3037,19 +3043,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3060,19 +3066,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3083,10 +3089,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>19</v>
@@ -3095,7 +3101,7 @@
         <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3106,19 +3112,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3129,19 +3135,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3152,19 +3158,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3175,19 +3181,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3198,19 +3204,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3221,19 +3227,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3244,19 +3250,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3267,19 +3273,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3290,19 +3296,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3313,19 +3319,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3336,19 +3342,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3359,10 +3365,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3371,7 +3377,7 @@
         <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3382,10 +3388,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3394,7 +3400,7 @@
         <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3405,668 +3411,760 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G151" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B155" s="2" t="s">
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -131,6 +131,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -206,9 +296,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -296,6 +383,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -347,9 +443,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -407,9 +500,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -438,6 +528,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -496,16 +592,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -930,22 +1026,22 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -953,22 +1049,22 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -976,22 +1072,22 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -999,22 +1095,22 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1022,22 +1118,22 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1045,22 +1141,22 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -1068,22 +1164,22 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1091,22 +1187,22 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1114,22 +1210,22 @@
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1137,22 +1233,22 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
@@ -1160,22 +1256,22 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
@@ -1183,22 +1279,22 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1206,39 +1302,39 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1249,19 +1345,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1272,19 +1368,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1295,19 +1391,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1318,19 +1414,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1341,19 +1437,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1364,19 +1460,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1387,19 +1483,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1410,19 +1506,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1433,19 +1529,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1456,19 +1552,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1479,19 +1575,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1502,19 +1598,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1525,19 +1621,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1644,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1667,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1690,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1713,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1736,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1759,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1782,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1805,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1828,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1851,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1874,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1897,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1920,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,620 +1943,620 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>32</v>
@@ -2468,19 +2564,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2491,22 +2587,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2514,22 +2610,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>32</v>
@@ -2537,19 +2633,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2656,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2679,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>32</v>
@@ -2606,22 +2702,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2629,19 +2725,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2652,22 +2748,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2675,19 +2771,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2698,22 +2794,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2721,19 +2817,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2744,22 +2840,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2767,22 +2863,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>32</v>
@@ -2790,19 +2886,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2909,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2932,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2955,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2882,22 +2978,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>32</v>
@@ -2905,19 +3001,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2928,22 +3024,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -2951,22 +3047,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>32</v>
@@ -2974,19 +3070,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3093,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3116,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3139,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3162,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3185,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3208,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3231,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3158,22 +3254,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>32</v>
@@ -3181,19 +3277,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3300,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3323,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3250,19 +3346,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3369,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3296,19 +3392,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3319,19 +3415,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3342,22 +3438,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>32</v>
@@ -3365,19 +3461,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3388,22 +3484,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>32</v>
@@ -3411,22 +3507,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>32</v>
@@ -3434,19 +3530,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3457,19 +3553,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3480,617 +3576,617 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4101,22 +4197,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>32</v>
@@ -4124,19 +4220,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4147,24 +4243,944 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="B166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -592,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2268,7 +2268,7 @@
         <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2277,7 +2277,7 @@
         <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,7 +2291,7 @@
         <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2300,7 +2300,7 @@
         <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,7 +2314,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2323,7 +2323,7 @@
         <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,7 +2337,7 @@
         <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2346,7 +2346,7 @@
         <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,7 +2360,7 @@
         <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2369,7 +2369,7 @@
         <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,7 +2383,7 @@
         <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2392,7 +2392,7 @@
         <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,7 +2406,7 @@
         <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2415,7 +2415,7 @@
         <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,7 +2429,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2438,7 +2438,7 @@
         <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,7 +2452,7 @@
         <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2461,7 +2461,7 @@
         <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,7 +2475,7 @@
         <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2484,7 +2484,7 @@
         <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,7 +2498,7 @@
         <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2507,7 +2507,7 @@
         <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,25 +2518,25 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -2544,16 +2544,16 @@
         <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,16 +2567,16 @@
         <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,16 +2590,16 @@
         <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,7 +2613,7 @@
         <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
@@ -2622,7 +2622,7 @@
         <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,7 +2636,7 @@
         <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
@@ -2645,7 +2645,7 @@
         <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,7 +2659,7 @@
         <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
@@ -2668,7 +2668,7 @@
         <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,16 +2682,16 @@
         <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,7 +2705,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2714,7 +2714,7 @@
         <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,7 +2728,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2737,7 +2737,7 @@
         <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,7 +2751,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2760,7 +2760,7 @@
         <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2783,7 +2783,7 @@
         <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,16 +2797,16 @@
         <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,7 +2820,7 @@
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
@@ -2829,7 +2829,7 @@
         <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,16 +2843,16 @@
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,7 +2866,7 @@
         <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2875,7 +2875,7 @@
         <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,7 +2889,7 @@
         <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2898,7 +2898,7 @@
         <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,7 +2912,7 @@
         <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2921,7 +2921,7 @@
         <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,7 +2935,7 @@
         <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2944,7 +2944,7 @@
         <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,7 +2958,7 @@
         <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2967,7 +2967,7 @@
         <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,7 +2981,7 @@
         <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2990,7 +2990,7 @@
         <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,7 +3004,7 @@
         <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3013,7 +3013,7 @@
         <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,7 +3027,7 @@
         <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3036,7 +3036,7 @@
         <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,16 +3050,16 @@
         <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,7 +3073,7 @@
         <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
@@ -3082,7 +3082,7 @@
         <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3096,7 +3096,7 @@
         <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
@@ -3105,7 +3105,7 @@
         <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3119,16 +3119,16 @@
         <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3142,7 +3142,7 @@
         <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3151,7 +3151,7 @@
         <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,7 +3165,7 @@
         <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3174,7 +3174,7 @@
         <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3188,7 +3188,7 @@
         <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3197,7 +3197,7 @@
         <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3211,7 +3211,7 @@
         <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3220,7 +3220,7 @@
         <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3231,22 +3231,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>32</v>
@@ -3257,19 +3257,19 @@
         <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>32</v>
@@ -3280,16 +3280,16 @@
         <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3303,16 +3303,16 @@
         <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3326,7 +3326,7 @@
         <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
@@ -3335,7 +3335,7 @@
         <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3349,7 +3349,7 @@
         <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
@@ -3358,7 +3358,7 @@
         <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3372,7 +3372,7 @@
         <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>19</v>
@@ -3381,7 +3381,7 @@
         <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3395,16 +3395,16 @@
         <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3418,7 +3418,7 @@
         <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3427,10 +3427,10 @@
         <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>32</v>
@@ -3441,7 +3441,7 @@
         <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3450,10 +3450,10 @@
         <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>32</v>
@@ -3464,7 +3464,7 @@
         <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3473,10 +3473,10 @@
         <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>32</v>
@@ -3487,7 +3487,7 @@
         <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3496,7 +3496,7 @@
         <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>20</v>
@@ -3510,19 +3510,19 @@
         <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>32</v>
@@ -3533,7 +3533,7 @@
         <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
@@ -3542,7 +3542,7 @@
         <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3556,19 @@
         <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>32</v>
@@ -3579,7 +3579,7 @@
         <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3588,7 +3588,7 @@
         <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>20</v>
@@ -3602,7 +3602,7 @@
         <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3611,10 +3611,10 @@
         <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>32</v>
@@ -3625,7 +3625,7 @@
         <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3634,10 +3634,10 @@
         <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>32</v>
@@ -3648,7 +3648,7 @@
         <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3657,10 +3657,10 @@
         <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>32</v>
@@ -3671,7 +3671,7 @@
         <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3680,10 +3680,10 @@
         <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>32</v>
@@ -3694,7 +3694,7 @@
         <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3703,10 +3703,10 @@
         <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
@@ -3717,7 +3717,7 @@
         <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3726,10 +3726,10 @@
         <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>32</v>
@@ -3740,7 +3740,7 @@
         <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3749,7 +3749,7 @@
         <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>20</v>
@@ -3763,19 +3763,19 @@
         <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>32</v>
@@ -3786,7 +3786,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
@@ -3795,7 +3795,7 @@
         <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3809,7 +3809,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>19</v>
@@ -3818,7 +3818,7 @@
         <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3832,16 +3832,16 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3855,7 +3855,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3864,10 +3864,10 @@
         <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>32</v>
@@ -3878,7 +3878,7 @@
         <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -3887,10 +3887,10 @@
         <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>32</v>
@@ -3901,7 +3901,7 @@
         <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3910,10 +3910,10 @@
         <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>32</v>
@@ -3924,7 +3924,7 @@
         <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3933,7 +3933,7 @@
         <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>20</v>
@@ -3944,22 +3944,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>32</v>
@@ -3970,16 +3970,16 @@
         <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3993,16 +3993,16 @@
         <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4016,7 +4016,7 @@
         <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4025,7 +4025,7 @@
         <v>63</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4039,16 +4039,16 @@
         <v>140</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4062,16 +4062,16 @@
         <v>140</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4085,7 +4085,7 @@
         <v>140</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>19</v>
@@ -4094,7 +4094,7 @@
         <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4108,16 +4108,16 @@
         <v>140</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4131,7 +4131,7 @@
         <v>140</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>19</v>
@@ -4140,7 +4140,7 @@
         <v>63</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4154,16 +4154,16 @@
         <v>140</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4177,7 +4177,7 @@
         <v>140</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>19</v>
@@ -4186,7 +4186,7 @@
         <v>141</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4200,16 +4200,16 @@
         <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4223,7 +4223,7 @@
         <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4232,7 +4232,7 @@
         <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4246,7 +4246,7 @@
         <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4255,7 +4255,7 @@
         <v>141</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4269,7 +4269,7 @@
         <v>140</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4278,7 +4278,7 @@
         <v>141</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4292,16 +4292,16 @@
         <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4315,16 +4315,16 @@
         <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4338,7 +4338,7 @@
         <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4347,7 +4347,7 @@
         <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4361,7 +4361,7 @@
         <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4370,7 +4370,7 @@
         <v>141</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4384,7 +4384,7 @@
         <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4393,7 +4393,7 @@
         <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4407,16 +4407,16 @@
         <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4430,7 +4430,7 @@
         <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4439,7 +4439,7 @@
         <v>63</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4450,25 +4450,25 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169">
@@ -4476,19 +4476,19 @@
         <v>158</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>161</v>
@@ -4499,16 +4499,16 @@
         <v>158</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4522,16 +4522,16 @@
         <v>158</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4545,7 +4545,7 @@
         <v>158</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>19</v>
@@ -4554,7 +4554,7 @@
         <v>159</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4568,7 +4568,7 @@
         <v>158</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>19</v>
@@ -4577,7 +4577,7 @@
         <v>159</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4591,7 +4591,7 @@
         <v>158</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>19</v>
@@ -4600,7 +4600,7 @@
         <v>159</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4614,16 +4614,16 @@
         <v>158</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4637,7 +4637,7 @@
         <v>158</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4646,10 +4646,10 @@
         <v>159</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>161</v>
@@ -4660,7 +4660,7 @@
         <v>158</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4669,10 +4669,10 @@
         <v>159</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>161</v>
@@ -4683,7 +4683,7 @@
         <v>158</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4692,10 +4692,10 @@
         <v>159</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>161</v>
@@ -4706,7 +4706,7 @@
         <v>158</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4715,7 +4715,7 @@
         <v>159</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>160</v>
@@ -4729,19 +4729,19 @@
         <v>158</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>161</v>
@@ -4752,7 +4752,7 @@
         <v>158</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>19</v>
@@ -4761,7 +4761,7 @@
         <v>159</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4775,19 +4775,19 @@
         <v>158</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>161</v>
@@ -4798,7 +4798,7 @@
         <v>158</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4807,7 +4807,7 @@
         <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>160</v>
@@ -4821,7 +4821,7 @@
         <v>158</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4830,10 +4830,10 @@
         <v>159</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>161</v>
@@ -4844,7 +4844,7 @@
         <v>158</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4853,10 +4853,10 @@
         <v>159</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>161</v>
@@ -4867,7 +4867,7 @@
         <v>158</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4876,10 +4876,10 @@
         <v>159</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>161</v>
@@ -4890,7 +4890,7 @@
         <v>158</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4899,10 +4899,10 @@
         <v>159</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>161</v>
@@ -4913,7 +4913,7 @@
         <v>158</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4922,10 +4922,10 @@
         <v>159</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>161</v>
@@ -4936,7 +4936,7 @@
         <v>158</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4945,10 +4945,10 @@
         <v>159</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>161</v>
@@ -4959,7 +4959,7 @@
         <v>158</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4968,7 +4968,7 @@
         <v>159</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>160</v>
@@ -4982,19 +4982,19 @@
         <v>158</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>161</v>
@@ -5005,7 +5005,7 @@
         <v>158</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>19</v>
@@ -5014,7 +5014,7 @@
         <v>159</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5028,7 +5028,7 @@
         <v>158</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>19</v>
@@ -5037,7 +5037,7 @@
         <v>159</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5048,25 +5048,25 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -5074,19 +5074,19 @@
         <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>32</v>
@@ -5097,19 +5097,19 @@
         <v>162</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>32</v>
@@ -5120,16 +5120,16 @@
         <v>162</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5143,44 +5143,21 @@
         <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -4732,7 +4732,7 @@
         <v>95</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>159</v>
@@ -4755,7 +4755,7 @@
         <v>97</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>159</v>
@@ -4764,7 +4764,7 @@
         <v>98</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>161</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -592,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1601,7 +1613,7 @@
         <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1610,7 +1622,7 @@
         <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1624,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1633,7 +1645,7 @@
         <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1647,7 +1659,7 @@
         <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1943,65 +1955,65 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2024,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2047,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2116,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2185,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2208,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2323,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2346,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,111 +2530,111 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2645,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2668,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2714,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2829,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3185,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3231,22 +3243,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>32</v>
@@ -3254,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3369,22 +3381,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>32</v>
@@ -3392,19 +3404,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3415,22 +3427,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>32</v>
@@ -3438,19 +3450,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3461,22 +3473,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>32</v>
@@ -3484,19 +3496,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>20</v>
@@ -3507,19 +3519,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3530,19 +3542,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3553,22 +3565,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>32</v>
@@ -3576,22 +3588,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>32</v>
@@ -3599,22 +3611,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>32</v>
@@ -3622,22 +3634,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>32</v>
@@ -3645,22 +3657,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>32</v>
@@ -3668,19 +3680,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>20</v>
@@ -3691,19 +3703,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3714,22 +3726,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>32</v>
@@ -3737,19 +3749,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>20</v>
@@ -3760,22 +3772,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>32</v>
@@ -3783,19 +3795,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3806,22 +3818,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>32</v>
@@ -3829,19 +3841,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3852,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>20</v>
@@ -3875,19 +3887,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3898,19 +3910,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>20</v>
@@ -3921,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>20</v>
@@ -3944,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3967,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3990,19 +4002,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4025,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4036,22 +4048,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>32</v>
@@ -4059,19 +4071,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4082,22 +4094,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>32</v>
@@ -4105,22 +4117,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>32</v>
@@ -4128,19 +4140,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4151,19 +4163,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4174,19 +4186,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4197,19 +4209,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4220,19 +4232,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4243,19 +4255,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4266,19 +4278,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4289,10 +4301,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>19</v>
@@ -4301,7 +4313,7 @@
         <v>63</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4312,19 +4324,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4335,19 +4347,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4358,19 +4370,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4381,19 +4393,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4404,19 +4416,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4427,19 +4439,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4450,600 +4462,600 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C174" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194">
@@ -5051,22 +5063,22 @@
         <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E194" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -5074,22 +5086,22 @@
         <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G195" s="2" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196">
@@ -5097,22 +5109,22 @@
         <v>162</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="197">
@@ -5120,22 +5132,22 @@
         <v>162</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198">
@@ -5143,21 +5155,251 @@
         <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="C206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>32</v>
       </c>
     </row>
